--- a/CountryData/Botswana/Botswana_Workbook.xlsx
+++ b/CountryData/Botswana/Botswana_Workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Botswana/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{39E0D6BD-DCB2-4119-9DC9-3630B0F01778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:40009_{39E0D6BD-DCB2-4119-9DC9-3630B0F01778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8806C558-B932-4CD1-BBCC-945949AD5555}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Botswana_Popup" sheetId="1" r:id="rId1"/>
@@ -86,22 +86,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">May 2017 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mining Investment and Governance Review Aims to Improve Botswana’s Mining Sector</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">October 2013 – </t>
     </r>
     <r>
@@ -231,12 +215,28 @@
       <t>Some Like Them Rough: The Future of Diamond Beneficiation in Botswana</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">May 2017 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mining Investment and Governance Review Aims to Improve Botswana’s Mining Sector</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -496,6 +496,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -896,7 +910,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -905,15 +919,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -932,11 +940,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -955,6 +959,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1311,11 +1327,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D29"/>
+      <selection sqref="A1:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1324,11 +1340,14 @@
     <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+    </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
@@ -1336,252 +1355,254 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="28">
         <v>100</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:4" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="21"/>
+      <c r="A18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="17"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="18"/>
+      <c r="A19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="15"/>
+      <c r="A21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="13"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="15"/>
+      <c r="A22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="13"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="18"/>
+      <c r="A23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="15"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="18"/>
+      <c r="A24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="15"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="18"/>
+      <c r="A27" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="15"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="18"/>
+      <c r="A28" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="15"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" s="26" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+    <row r="31" spans="1:4" s="22" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A31:B31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=BW"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=BW"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=BW"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://atlas.cid.harvard.edu/countries/37/export-basket"/>
-    <hyperlink ref="A13" r:id="rId6" display="http://www.mines.gov.bw/mines and minerals  Act.pdf"/>
-    <hyperlink ref="A14" r:id="rId7" display="https://unfccc.int/files/adaptation/groups_committees/adaptation_committee/application/pdf/20151002_botswana.pdf"/>
-    <hyperlink ref="A15" r:id="rId8" display="https://www.wipo.int/edocs/lexdocs/laws/en/bw/bw009en.pdf"/>
-    <hyperlink ref="A18" r:id="rId9" display="https://www.worldbank.org/en/news/press-release/2017/05/04/mining-investment-and-governance-review-aims-to-improve-botswanas-mining-sector"/>
-    <hyperlink ref="A19" r:id="rId10" display="https://www.reuters.com/article/uk-debeers-idUKBRE9920C820131003"/>
-    <hyperlink ref="A23" r:id="rId11" display="https://unctad.org/system/files/official-document/suc2017d1_en.pdf"/>
-    <hyperlink ref="A24" r:id="rId12" display="https://www.worldbank.org/en/news/press-release/2017/05/04/mining-investment-and-governance-review-aims-to-improve-botswanas-mining-sector"/>
-    <hyperlink ref="A25" r:id="rId13" display="https://www.econstor.eu/handle/10419/146278"/>
-    <hyperlink ref="A26" r:id="rId14" display="https://ccsi.columbia.edu/sites/default/files/content/docs/our focus/extractive industries/Local-Content_Botswana_Sept2016.pdf"/>
-    <hyperlink ref="A28" r:id="rId15" display="https://ecdpm.org/wp-content/uploads/2013/11/DP-142-Future-of-Diamond-Beneficiation-Botswana-2013.pdf"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=BW" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=BW" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=BW" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://atlas.cid.harvard.edu/countries/37/export-basket" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A13" r:id="rId6" display="http://www.mines.gov.bw/mines and minerals  Act.pdf" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A14" r:id="rId7" display="https://unfccc.int/files/adaptation/groups_committees/adaptation_committee/application/pdf/20151002_botswana.pdf" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A15" r:id="rId8" display="https://www.wipo.int/edocs/lexdocs/laws/en/bw/bw009en.pdf" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A18" r:id="rId9" display="https://www.worldbank.org/en/news/press-release/2017/05/04/mining-investment-and-governance-review-aims-to-improve-botswanas-mining-sector" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A19" r:id="rId10" display="https://www.reuters.com/article/uk-debeers-idUKBRE9920C820131003" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A23" r:id="rId11" display="https://unctad.org/system/files/official-document/suc2017d1_en.pdf" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A24" r:id="rId12" display="https://www.worldbank.org/en/news/press-release/2017/05/04/mining-investment-and-governance-review-aims-to-improve-botswanas-mining-sector" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A25" r:id="rId13" display="https://www.econstor.eu/handle/10419/146278" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A26" r:id="rId14" display="https://ccsi.columbia.edu/sites/default/files/content/docs/our focus/extractive industries/Local-Content_Botswana_Sept2016.pdf" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A28" r:id="rId15" display="https://ecdpm.org/wp-content/uploads/2013/11/DP-142-Future-of-Diamond-Beneficiation-Botswana-2013.pdf" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <webPublishItems count="1">
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>
+  <webPublishItems count="2">
     <webPublishItem id="24145" divId="Botswana_Workbook_24145" sourceType="range" sourceRef="A1:D29" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Botswana\Botswana_Popup.htm"/>
+    <webPublishItem id="16297" divId="Botswana_Workbook_16297" sourceType="range" sourceRef="A1:E29" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Botswana\Botswana_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/CountryData/Botswana/Botswana_Workbook.xlsx
+++ b/CountryData/Botswana/Botswana_Workbook.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:40009_{39E0D6BD-DCB2-4119-9DC9-3630B0F01778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8806C558-B932-4CD1-BBCC-945949AD5555}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Botswana_Popup" sheetId="1" r:id="rId1"/>
@@ -956,9 +956,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -971,6 +968,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1341,13 +1341,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="25"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
@@ -1355,7 +1355,7 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4"/>
@@ -1365,7 +1365,7 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4"/>
@@ -1375,7 +1375,7 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4"/>
@@ -1385,7 +1385,7 @@
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>100</v>
       </c>
       <c r="C6" s="4"/>
@@ -1438,7 +1438,7 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="15"/>
@@ -1446,7 +1446,7 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="15"/>
@@ -1454,7 +1454,7 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="15"/>
@@ -1462,7 +1462,7 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="15"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1574,8 +1574,8 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" s="22" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/CountryData/Botswana/Botswana_Workbook.xlsx
+++ b/CountryData/Botswana/Botswana_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Botswana/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:40009_{39E0D6BD-DCB2-4119-9DC9-3630B0F01778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8806C558-B932-4CD1-BBCC-945949AD5555}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:40009_{39E0D6BD-DCB2-4119-9DC9-3630B0F01778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8979CA04-AB22-4102-864A-0FA457553066}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Botswana_Popup" sheetId="1" r:id="rId1"/>
@@ -43,15 +43,30 @@
     <t>0% (2019)</t>
   </si>
   <si>
-    <t xml:space="preserve">Human Development Index (World Rank) </t>
-  </si>
-  <si>
     <t>EITI Status</t>
   </si>
   <si>
     <t>Yet to be assessed against the Standard</t>
   </si>
   <si>
+    <t>Link to key economic information.</t>
+  </si>
+  <si>
+    <t>ELLED Relevant Legislation:</t>
+  </si>
+  <si>
+    <t>Mines and Minerals Act of 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competition Law of 2009 </t>
+  </si>
+  <si>
+    <t>ELLED Relevant News:</t>
+  </si>
+  <si>
+    <t>Analysis and Case Studies:</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">* </t>
     </r>
@@ -63,30 +78,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">World Bank staff estimates through the WITS platform from the Comtrade database maintained by the United Nations Statistics Division. </t>
-    </r>
-  </si>
-  <si>
-    <t>Link to key economic information.</t>
-  </si>
-  <si>
-    <t>ELLED Relevant Legislation:</t>
-  </si>
-  <si>
-    <t>Mines and Minerals Act of 1999</t>
-  </si>
-  <si>
-    <t>Economic Diversification Drive, Medium to Long Term Strategy (2011- 2016) (“EDD”)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Competition Law of 2009 </t>
-  </si>
-  <si>
-    <t>ELLED Relevant News:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">October 2013 – </t>
+      <t>World Bank staff estimates through the WITS platform from the Comtrade database maintained by the United Nations Statistics Division.</t>
+    </r>
+  </si>
+  <si>
+    <t>Human Development Index (World Rank)</t>
+  </si>
+  <si>
+    <t>Economic Diversification Drive, Medium to Long Term Strategy (2011- 2016) (EDD)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">May 2017 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">– </t>
     </r>
     <r>
       <rPr>
@@ -97,15 +116,80 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Mining Investment and Governance Review Aims to Improve Botswana’s Mining Sector</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">October 2013 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Goodbye London, Hello Gaborone: De Beers Sales Head to Africa</t>
     </r>
   </si>
   <si>
-    <t>Analysis and Case Studies:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IGF (2018) – </t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IGF (2018) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -121,7 +205,33 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">UNCTAD (2017) – </t>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UNCTAD (2017) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -137,7 +247,33 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">World Bank (2017) – </t>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">World Bank (2017) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -153,7 +289,33 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Fessehaie et al. (2016) – </t>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fessehaie et al. (2016) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -169,7 +331,33 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> Columbia Centre on Sustainable Investment (2016) – </t>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Columbia Centre on Sustainable Investment (2016) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -185,7 +373,33 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">World Bank (2014) – </t>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">World Bank (2014) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -201,7 +415,33 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ECDPM (2013) – </t>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ECDPM (2013) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -213,22 +453,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Some Like Them Rough: The Future of Diamond Beneficiation in Botswana</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">May 2017 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mining Investment and Governance Review Aims to Improve Botswana’s Mining Sector</t>
     </r>
   </si>
 </sst>
@@ -236,10 +460,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,15 +675,68 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -462,53 +746,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -866,111 +1103,116 @@
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1330,24 +1572,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.625" customWidth="1"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="24"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
@@ -1355,7 +1597,7 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4"/>
@@ -1365,7 +1607,7 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4"/>
@@ -1375,7 +1617,7 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4"/>
@@ -1383,9 +1625,9 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="27">
+        <v>16</v>
+      </c>
+      <c r="B6" s="22">
         <v>100</v>
       </c>
       <c r="C6" s="4"/>
@@ -1393,17 +1635,17 @@
     </row>
     <row r="7" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1416,166 +1658,166 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="13"/>
+      <c r="A12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="15"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="30"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="15"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="30"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="15"/>
+      <c r="A15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="30"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13"/>
+      <c r="A17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+    <row r="18" spans="1:4" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="15"/>
+      <c r="A19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="13"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="13"/>
+      <c r="A21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="11"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="13"/>
+      <c r="A22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="15"/>
+      <c r="A23" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="13"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="15"/>
+      <c r="A24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="13"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="A25" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="15"/>
+      <c r="A26" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="13"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="15"/>
+      <c r="A27" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="13"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="15"/>
+      <c r="A28" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="13"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" s="22" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+    <row r="31" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1587,22 +1829,23 @@
     <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=BW" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="A10" r:id="rId5" display="https://atlas.cid.harvard.edu/countries/37/export-basket" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A13" r:id="rId6" display="http://www.mines.gov.bw/mines and minerals  Act.pdf" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A14" r:id="rId7" display="https://unfccc.int/files/adaptation/groups_committees/adaptation_committee/application/pdf/20151002_botswana.pdf" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A15" r:id="rId8" display="https://www.wipo.int/edocs/lexdocs/laws/en/bw/bw009en.pdf" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A18" r:id="rId9" display="https://www.worldbank.org/en/news/press-release/2017/05/04/mining-investment-and-governance-review-aims-to-improve-botswanas-mining-sector" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A19" r:id="rId10" display="https://www.reuters.com/article/uk-debeers-idUKBRE9920C820131003" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A23" r:id="rId11" display="https://unctad.org/system/files/official-document/suc2017d1_en.pdf" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A24" r:id="rId12" display="https://www.worldbank.org/en/news/press-release/2017/05/04/mining-investment-and-governance-review-aims-to-improve-botswanas-mining-sector" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A25" r:id="rId13" display="https://www.econstor.eu/handle/10419/146278" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A26" r:id="rId14" display="https://ccsi.columbia.edu/sites/default/files/content/docs/our focus/extractive industries/Local-Content_Botswana_Sept2016.pdf" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A28" r:id="rId15" display="https://ecdpm.org/wp-content/uploads/2013/11/DP-142-Future-of-Diamond-Beneficiation-Botswana-2013.pdf" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A24" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A26" r:id="rId13" display=" Columbia Centre on Sustainable Investment (2016) – Local Content: Botswana - Mining" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A28" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A18" r:id="rId15" xr:uid="{E6E3CEC7-14BA-4DEB-A12A-DE37D3A3EEF0}"/>
+    <hyperlink ref="A22" r:id="rId16" xr:uid="{0D1642E6-5D6E-41E6-81DB-8CC7D1EC7B65}"/>
+    <hyperlink ref="A27" r:id="rId17" xr:uid="{504E9C0E-4E07-4AA2-A0C4-E1333D406832}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>
-  <webPublishItems count="2">
-    <webPublishItem id="24145" divId="Botswana_Workbook_24145" sourceType="range" sourceRef="A1:D29" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Botswana\Botswana_Popup.htm"/>
-    <webPublishItem id="16297" divId="Botswana_Workbook_16297" sourceType="range" sourceRef="A1:E29" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Botswana\Botswana_Popup.htm" autoRepublish="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId18"/>
+  <webPublishItems count="1">
+    <webPublishItem id="26740" divId="Botswana_Workbook_26740" sourceType="range" sourceRef="A1:G30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Botswana\Botswana_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/CountryData/Botswana/Botswana_Workbook.xlsx
+++ b/CountryData/Botswana/Botswana_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Botswana/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:40009_{39E0D6BD-DCB2-4119-9DC9-3630B0F01778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8979CA04-AB22-4102-864A-0FA457553066}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:40009_{39E0D6BD-DCB2-4119-9DC9-3630B0F01778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A7E2BC5-DE85-43EA-9CA8-4BD46F25035F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>Population</t>
   </si>
   <si>
-    <t xml:space="preserve">2,351,625 (2020) </t>
-  </si>
-  <si>
     <t>Metal/ Ore Exports (% of Total Merchandise Exports) *</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>Mines and Minerals Act of 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">Competition Law of 2009 </t>
-  </si>
-  <si>
     <t>ELLED Relevant News:</t>
   </si>
   <si>
@@ -96,6 +90,348 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">October 2013 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Goodbye London, Hello Gaborone: De Beers Sales Head to Africa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IGF (2018) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IGF Local Content Guidance Case Study Botswana: Downstream Linkages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UNCTAD (2017) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Commodities and Development Report</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">World Bank (2017) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Botswana Mining Investment and Governance Review</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fessehaie et al. (2016) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mining-Related National Systems of Innovation in Southern Africa: National Trajectories and Regional Integration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Columbia Centre on Sustainable Investment (2016) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local Content: Botswana - Mining</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">World Bank (2014) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skills Implications of Botswana's Diamond Beneficiation Strategy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ECDPM (2013) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Some Like Them Rough: The Future of Diamond Beneficiation in Botswana</t>
+    </r>
+  </si>
+  <si>
+    <t>2,351,625 (2020)</t>
+  </si>
+  <si>
+    <t>Competition Law of 2009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">May 2017 </t>
     </r>
     <r>
@@ -116,343 +452,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Mining Investment and Governance Review Aims to Improve Botswana’s Mining Sector</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">October 2013 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Goodbye London, Hello Gaborone: De Beers Sales Head to Africa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">IGF (2018) </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IGF Local Content Guidance Case Study Botswana: Downstream Linkages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">UNCTAD (2017) </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Commodities and Development Report</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">World Bank (2017) </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Botswana Mining Investment and Governance Review</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Fessehaie et al. (2016) </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mining-Related National Systems of Innovation in Southern Africa: National Trajectories and Regional Integration</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Columbia Centre on Sustainable Investment (2016) </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content: Botswana - Mining</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">World Bank (2014) </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Skills Implications of Botswana's Diamond Beneficiation Strategy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ECDPM (2013) </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Some Like Them Rough: The Future of Diamond Beneficiation in Botswana</t>
+      <t>Mining Investment and Governance Review Aims to Improve Botswana Mining Sector</t>
     </r>
   </si>
 </sst>
@@ -1202,9 +1202,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1213,6 +1210,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1573,7 +1573,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G30"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1598,34 +1598,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="22">
         <v>100</v>
@@ -1635,17 +1635,17 @@
     </row>
     <row r="7" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1658,12 +1658,12 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>9</v>
+      <c r="A10" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
@@ -1673,45 +1673,45 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="30"/>
+      <c r="A13" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="29"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="30"/>
+      <c r="A14" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="29"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="30"/>
+      <c r="A15" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="29"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="2"/>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="18" spans="1:4" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="4"/>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="2"/>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="2"/>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="2"/>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="2"/>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="2"/>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="2"/>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="2"/>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="2"/>
@@ -1816,8 +1816,8 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1831,14 +1831,14 @@
     <hyperlink ref="A10" r:id="rId5" display="https://atlas.cid.harvard.edu/countries/37/export-basket" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="A13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="A14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A15" r:id="rId8" display="Competition Law of 2009 " xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="A19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="A23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="A24" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="A25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="A26" r:id="rId13" display=" Columbia Centre on Sustainable Investment (2016) – Local Content: Botswana - Mining" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="A28" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A18" r:id="rId15" xr:uid="{E6E3CEC7-14BA-4DEB-A12A-DE37D3A3EEF0}"/>
+    <hyperlink ref="A18" r:id="rId15" display="May 2017 – Mining Investment and Governance Review Aims to Improve Botswana’s Mining Sector" xr:uid="{E6E3CEC7-14BA-4DEB-A12A-DE37D3A3EEF0}"/>
     <hyperlink ref="A22" r:id="rId16" xr:uid="{0D1642E6-5D6E-41E6-81DB-8CC7D1EC7B65}"/>
     <hyperlink ref="A27" r:id="rId17" xr:uid="{504E9C0E-4E07-4AA2-A0C4-E1333D406832}"/>
   </hyperlinks>

--- a/CountryData/Botswana/Botswana_Workbook.xlsx
+++ b/CountryData/Botswana/Botswana_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Botswana/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:40009_{39E0D6BD-DCB2-4119-9DC9-3630B0F01778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A7E2BC5-DE85-43EA-9CA8-4BD46F25035F}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:40009_{39E0D6BD-DCB2-4119-9DC9-3630B0F01778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0D3751B-2D7C-4764-A74A-54EE266F68A0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1573,7 +1573,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection sqref="A1:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1845,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId18"/>
   <webPublishItems count="1">
-    <webPublishItem id="26740" divId="Botswana_Workbook_26740" sourceType="range" sourceRef="A1:G30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Botswana\Botswana_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="31740" divId="Botswana_Workbook_31740" sourceType="range" sourceRef="A1:G30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Botswana\Botswana_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>